--- a/src/main/resources/externalFile/员工信息模板.xlsx
+++ b/src/main/resources/externalFile/员工信息模板.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="19005" windowHeight="7680"/>
+    <workbookView windowWidth="27540" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>渤海期货员工信息表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>渤海期货员工信息表（所有单元格需设置为文本类型）</t>
   </si>
   <si>
     <t>员工编号</t>
@@ -113,7 +113,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,29 +152,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,12 +498,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -192,27 +753,73 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,19 +1110,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
@@ -527,57 +1134,57 @@
     <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -609,7 +1216,7 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -647,7 +1254,7 @@
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -679,7 +1286,7 @@
       <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -690,9 +1297,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2 A1:L1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:L1 F2:G2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G3:G4 G6:G1048576">
       <formula1>"在职,离职"</formula1>
     </dataValidation>
@@ -701,39 +1307,46 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="K5" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId1" display="154645@163.com"/>
+    <hyperlink ref="K4" r:id="rId1" display="154645@163.com"/>
+    <hyperlink ref="K5" r:id="rId1" display="154645@163.com"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/externalFile/员工信息模板.xlsx
+++ b/src/main/resources/externalFile/员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>渤海期货员工信息表（所有单元格需设置为文本类型）</t>
   </si>
@@ -58,6 +58,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>100001</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -94,25 +97,31 @@
     <t>2017-09-10</t>
   </si>
   <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>6000</t>
+    <t>39170605</t>
+  </si>
+  <si>
+    <t>覃帆</t>
+  </si>
+  <si>
+    <t>3600.00</t>
   </si>
   <si>
     <t>试用期员工</t>
   </si>
   <si>
-    <t>2017-05-10</t>
+    <t>2017-06-01</t>
   </si>
   <si>
     <t>所有日期必须为yyyy-mm-dd格式，例如：2017-10-24</t>
   </si>
   <si>
     <t>所有单元格必须设置为文本格式</t>
+  </si>
+  <si>
+    <t>员工编号、员工姓名、</t>
+  </si>
+  <si>
+    <t>员工类型、岗位工资不能为空</t>
   </si>
 </sst>
 </file>
@@ -120,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -159,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -167,6 +183,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,60 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,50 +296,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,18 +320,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,126 +482,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,36 +501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,11 +516,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,17 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,9 +579,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +606,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1195,11 +1204,11 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>100001</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>4500</v>
@@ -1211,22 +1220,22 @@
         <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1234,7 +1243,7 @@
         <v>100002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -1246,57 +1255,51 @@
         <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1311,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G3:G4 G6:G1048576">
       <formula1>"在职,离职"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F5 F6:F1048576">
       <formula1>"正式员工,试用期员工"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1326,22 +1329,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/externalFile/员工信息模板.xlsx
+++ b/src/main/resources/externalFile/员工信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="14820" windowHeight="6270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,10 @@
     <t>2017-09-10</t>
   </si>
   <si>
-    <t>39170605</t>
-  </si>
-  <si>
-    <t>覃帆</t>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>王五</t>
   </si>
   <si>
     <t>3600.00</t>
@@ -129,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -168,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,52 +182,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,27 +219,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,16 +251,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,8 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,8 +281,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +540,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,56 +606,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1317,8 +1317,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" display="154645@163.com"/>
+    <hyperlink ref="K5" r:id="rId1" display="154645@163.com"/>
     <hyperlink ref="K4" r:id="rId1" display="154645@163.com"/>
-    <hyperlink ref="K5" r:id="rId1" display="154645@163.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
